--- a/data/financial_statements/soci/TSN.xlsx
+++ b/data/financial_statements/soci/TSN.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -131,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -496,129 +607,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>13737000000</v>
@@ -739,8 +850,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>0.0723</v>
@@ -861,23 +972,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>12430000000</v>
       </c>
       <c r="C4">
-        <v>11909000000</v>
+        <v>11884000000</v>
       </c>
       <c r="D4">
-        <v>11468000000</v>
+        <v>11382000000</v>
       </c>
       <c r="E4">
-        <v>10996000000</v>
+        <v>10918000000</v>
       </c>
       <c r="F4">
-        <v>10163000000</v>
+        <v>10335000000</v>
       </c>
       <c r="G4">
         <v>10858000000</v>
@@ -983,23 +1094,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>1307000000</v>
       </c>
       <c r="C5">
-        <v>1586000000</v>
+        <v>1611000000</v>
       </c>
       <c r="D5">
-        <v>1649000000</v>
+        <v>1735000000</v>
       </c>
       <c r="E5">
-        <v>1937000000</v>
+        <v>2015000000</v>
       </c>
       <c r="F5">
-        <v>2648000000</v>
+        <v>2476000000</v>
       </c>
       <c r="G5">
         <v>1620000000</v>
@@ -1105,8 +1216,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>541000000</v>
@@ -1227,8 +1338,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>766000000</v>
@@ -1349,8 +1460,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>83000000</v>
@@ -1390,23 +1501,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>7000000</v>
+        <v>83000000</v>
       </c>
       <c r="C9">
-        <v>4000000</v>
+        <v>85000000</v>
       </c>
       <c r="D9">
-        <v>3000000</v>
+        <v>97000000</v>
       </c>
       <c r="E9">
-        <v>3000000</v>
+        <v>100000000</v>
       </c>
       <c r="F9">
-        <v>2000000</v>
+        <v>103000000</v>
       </c>
       <c r="G9">
         <v>105000000</v>
@@ -1512,23 +1623,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>-24000000</v>
+        <v>-100000000</v>
       </c>
       <c r="C10">
-        <v>7000000</v>
+        <v>-47000000</v>
       </c>
       <c r="D10">
-        <v>-70000000</v>
+        <v>-69000000</v>
       </c>
       <c r="E10">
-        <v>-86000000</v>
+        <v>-45000000</v>
       </c>
       <c r="F10">
-        <v>205000000</v>
+        <v>-74000000</v>
       </c>
       <c r="G10">
         <v>-96000000</v>
@@ -1634,8 +1745,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>666000000</v>
@@ -1756,8 +1867,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>129000000</v>
@@ -1878,8 +1989,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>537000000</v>
@@ -2000,8 +2111,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>-1000000</v>
@@ -2110,8 +2221,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>538000000</v>
@@ -2232,23 +2343,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>1.5</v>
       </c>
       <c r="C16">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="D16">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="E16">
-        <v>3.13</v>
+        <v>3.16</v>
       </c>
       <c r="F16">
-        <v>3.77</v>
+        <v>3.81</v>
       </c>
       <c r="G16">
         <v>2.11</v>
@@ -2354,8 +2465,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>1.5</v>
@@ -2370,7 +2481,7 @@
         <v>3.07</v>
       </c>
       <c r="F17">
-        <v>3.77</v>
+        <v>3.71</v>
       </c>
       <c r="G17">
         <v>2.05</v>
@@ -2476,23 +2587,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>351000000</v>
+        <v>360000000</v>
       </c>
       <c r="C18">
-        <v>352000000</v>
+        <v>359000000</v>
       </c>
       <c r="D18">
-        <v>354000000</v>
+        <v>361000000</v>
       </c>
       <c r="E18">
-        <v>355000000</v>
+        <v>362000000</v>
       </c>
       <c r="F18">
-        <v>356000000</v>
+        <v>363000000</v>
       </c>
       <c r="G18">
         <v>363000000</v>
@@ -2598,23 +2709,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>361000000</v>
+        <v>363000000</v>
       </c>
       <c r="C19">
-        <v>355000000</v>
+        <v>362000000</v>
       </c>
       <c r="D19">
-        <v>357000000</v>
+        <v>364000000</v>
       </c>
       <c r="E19">
-        <v>358000000</v>
+        <v>365000000</v>
       </c>
       <c r="F19">
-        <v>359000000</v>
+        <v>365000000</v>
       </c>
       <c r="G19">
         <v>366000000</v>
@@ -2720,23 +2831,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>0.0951</v>
       </c>
       <c r="C20">
-        <v>0.1175</v>
+        <v>0.1194</v>
       </c>
       <c r="D20">
-        <v>0.1257</v>
+        <v>0.1323</v>
       </c>
       <c r="E20">
-        <v>0.1498</v>
+        <v>0.1558</v>
       </c>
       <c r="F20">
-        <v>0.2067</v>
+        <v>0.1933</v>
       </c>
       <c r="G20">
         <v>0.1298</v>
@@ -2842,8 +2953,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0.0558</v>
@@ -2964,8 +3075,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0.0485</v>
@@ -3086,8 +3197,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0.0392</v>
@@ -3208,23 +3319,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>1083000000</v>
+        <v>1110000000</v>
       </c>
       <c r="C24">
-        <v>1303000000</v>
+        <v>1330000000</v>
       </c>
       <c r="D24">
-        <v>1362000000</v>
+        <v>1451000000</v>
       </c>
       <c r="E24">
-        <v>1675000000</v>
+        <v>1755000000</v>
       </c>
       <c r="F24">
-        <v>2381000000</v>
+        <v>2277000000</v>
       </c>
       <c r="G24">
         <v>1364000000</v>
@@ -3330,8 +3441,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>766000000</v>
@@ -3452,8 +3563,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>537000000</v>
@@ -3574,8 +3685,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="AM27">
         <v>-4000000</v>
@@ -3585,11 +3696,11 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>535000000</v>
+        <v>537000000</v>
       </c>
       <c r="C28">
         <v>753000000</v>
@@ -3707,8 +3818,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>1.5095</v>
@@ -3829,8 +3940,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>1.4969</v>
@@ -3951,8 +4062,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="AL31">
         <v>0.0005999999999999999</v>
@@ -3965,8 +4076,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="AL32">
         <v>-0.0005999999999999999</v>
@@ -3979,8 +4090,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>1.5095</v>
@@ -4101,8 +4212,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>1.4969</v>
@@ -4223,8 +4334,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>361000000</v>
@@ -4345,23 +4456,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>0.0788</v>
+        <v>0.0808</v>
       </c>
       <c r="C36">
-        <v>0.09660000000000001</v>
+        <v>0.09859999999999999</v>
       </c>
       <c r="D36">
-        <v>0.1038</v>
+        <v>0.1106</v>
       </c>
       <c r="E36">
-        <v>0.1295</v>
+        <v>0.1357</v>
       </c>
       <c r="F36">
-        <v>0.1859</v>
+        <v>0.1777</v>
       </c>
       <c r="G36">
         <v>0.1093</v>
@@ -4467,8 +4578,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>0.058</v>
